--- a/biology/Médecine/Sensai_Nagayo/Sensai_Nagayo.xlsx
+++ b/biology/Médecine/Sensai_Nagayo/Sensai_Nagayo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sensai Nagayo (16 octobre 1838 - 8 septembre 1902) est un médecin et homme politique japonais de l'ère Meiji.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sensai Nagayo naît dans une famille de médecins traditionnels du han d'Ōmura, dans l'ancienne province de Hizen (aujourd'hui préfecture de Nagasaki). Il étudie le rangaku auprès d'Ogata Kōan à Ōsaka. Plus tard, il fonde  à Nagasaki un établissement d'enseignement médical où il combine les pratiques occidentale et orientale avec l'aide du médecin néerlandais J. L. C. Pompe van Meerdervoort.
 Après la restauration de Meiji, Nagayo est choisi en 1871 afin d'accompagner la mission Iwakura dans son voyage autour du monde, ce qui le conduira aux États-Unis et en Europe. Il est particulièrement impressionné par ce qu'il découvre des pratiques médicales modernes en Allemagne et aux Pays-Bas. De retour au Japon, il crée le Bureau des Affaires Médicales, qui deviendra plus tard le Ministère de la Santé, du Travail et des Affaires sociales. Cette nouvelle institution dépend tout d'abord du Ministère de l'Éducation, et plus tard du Ministère de l'Intérieur. Il fait également promulguer une loi sur la vaccination et une législation médicale complète.
